--- a/biology/Médecine/Hôpital_pédiatrique_Santo_Antônio/Hôpital_pédiatrique_Santo_Antônio.xlsx
+++ b/biology/Médecine/Hôpital_pédiatrique_Santo_Antônio/Hôpital_pédiatrique_Santo_Antônio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_p%C3%A9diatrique_Santo_Ant%C3%B4nio</t>
+          <t>Hôpital_pédiatrique_Santo_Antônio</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Hôpital pédiatrique Santo Antônio est une unité du complexe hospitalier de la Santa Casa de Misericórdia de Porto Alegre. Il est spécialisé en pédiatrie, avec des soins de haute qualité. Ses espaces sont tous adaptés aux jeunes patients.
 </t>
